--- a/static/docs/WMA2019_PC_Roster.xlsx
+++ b/static/docs/WMA2019_PC_Roster.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melzieb/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A0B84-7E83-8544-B4BC-BB49B61B5973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="18120" yWindow="680" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WMA 2019 PC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Title</t>
   </si>
@@ -319,12 +325,27 @@
   </si>
   <si>
     <t>Irvine Chair of Anthropology and Associate Curator</t>
+  </si>
+  <si>
+    <t>PR Manager</t>
+  </si>
+  <si>
+    <t>Cecilia Clark</t>
+  </si>
+  <si>
+    <t>cclark@cdm.org</t>
+  </si>
+  <si>
+    <t>408-673-2865</t>
+  </si>
+  <si>
+    <t>Children's Discovery Museum of San Jose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -366,6 +387,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,12 +408,14 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -741,7 +765,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="276">
-    <cellStyle name="Accent5 - 20%" xfId="1"/>
+    <cellStyle name="Accent5 - 20%" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1023,6 +1047,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1349,15 +1376,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="4" customWidth="1"/>
@@ -1368,7 +1395,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1">
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1">
+    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1425,7 +1452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1">
+    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -1433,7 +1460,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1">
+    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1453,7 +1480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1">
+    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1">
+    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1">
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -1525,7 +1552,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1">
+    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1545,7 +1572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1">
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1585,7 +1612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1625,7 +1652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1643,7 +1670,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1660,7 +1687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1680,7 +1707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>71</v>
       </c>
@@ -1698,7 +1725,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>81</v>
       </c>
@@ -1718,7 +1745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -1736,7 +1763,7 @@
       </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
@@ -1754,18 +1781,38 @@
       </c>
       <c r="F21" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E20" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
